--- a/python/pythonBasic/8-module/2-Pandas/data/21dsj.xlsx
+++ b/python/pythonBasic/8-module/2-Pandas/data/21dsj.xlsx
@@ -698,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -708,42 +708,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,7 +830,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,7 +860,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,28 +878,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,10 +908,10 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1017,17 +991,18 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,10 +1333,14 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="15" max="15" width="15.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="72" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1450,8 +1429,8 @@
       <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1495,8 +1474,8 @@
       <c r="M3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1540,8 +1519,8 @@
       <c r="M4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1585,8 +1564,8 @@
       <c r="M5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1616,7 +1595,7 @@
         <v>18687402850</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1624,8 +1603,8 @@
         <v>11</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1669,8 +1648,8 @@
       <c r="M7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1711,11 +1690,11 @@
       <c r="L8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1759,8 +1738,8 @@
       <c r="M9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1804,8 +1783,8 @@
       <c r="M10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1849,8 +1828,8 @@
       <c r="M11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1894,8 +1873,8 @@
       <c r="M12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="9"/>
+      <c r="O12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1937,8 +1916,8 @@
         <v>11</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" ht="28.8" spans="1:15">
       <c r="A14" s="2" t="s">
@@ -1968,10 +1947,10 @@
       <c r="I14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -1980,8 +1959,8 @@
       <c r="M14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2025,8 +2004,8 @@
       <c r="M15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2070,8 +2049,8 @@
       <c r="M16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11" t="s">
+      <c r="N16" s="9"/>
+      <c r="O16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2106,7 +2085,7 @@
       <c r="J17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -2115,8 +2094,8 @@
       <c r="M17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11" t="s">
+      <c r="N17" s="9"/>
+      <c r="O17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2160,8 +2139,8 @@
       <c r="M18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2205,8 +2184,8 @@
       <c r="M19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2250,8 +2229,8 @@
       <c r="M20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2283,20 +2262,20 @@
       <c r="I21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11" t="s">
+      <c r="N21" s="9"/>
+      <c r="O21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2340,8 +2319,8 @@
       <c r="M22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11" t="s">
+      <c r="N22" s="9"/>
+      <c r="O22" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2373,7 +2352,7 @@
       <c r="I23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2382,11 +2361,11 @@
       <c r="L23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11" t="s">
+      <c r="N23" s="9"/>
+      <c r="O23" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2430,8 +2409,8 @@
       <c r="M24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11" t="s">
+      <c r="N24" s="9"/>
+      <c r="O24" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2475,8 +2454,8 @@
       <c r="M25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11" t="s">
+      <c r="N25" s="9"/>
+      <c r="O25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2520,8 +2499,8 @@
       <c r="M26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11" t="s">
+      <c r="N26" s="9"/>
+      <c r="O26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2544,7 +2523,7 @@
       <c r="F27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="5">
@@ -2565,8 +2544,8 @@
       <c r="M27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11" t="s">
+      <c r="N27" s="9"/>
+      <c r="O27" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2598,20 +2577,20 @@
       <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11" t="s">
+      <c r="N28" s="9"/>
+      <c r="O28" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2628,13 +2607,13 @@
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="5">
@@ -2649,14 +2628,14 @@
       <c r="K29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11" t="s">
+      <c r="N29" s="9"/>
+      <c r="O29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2665,14 +2644,14 @@
     <dataValidation type="list" sqref="I2:I29 J2:J29">
       <formula1>"自主实习,跟岗实习"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="M2:M29">
-      <formula1>"Java开发程序员,.Net开发程序员,Android开发程序员,H5开发程序员,Python开发程序员,Web前端开发程序员,大数据运维工程师,大数据开发工程师,云计算运维工程师,云计算开发工程师,软件实施,网络运维,软件测试,少儿编程,UI设计,电子商务技术(SEO、运营）,手机测试,需求分析,新媒体运营,技术支持,软件销售,文档助理,售前,项目助理,5G优化,网络营销,大数据清洗,大数据标,其它"</formula1>
+    <dataValidation type="list" sqref="L2:L29">
+      <formula1>"征兵入伍,非征兵入伍"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K29">
       <formula1>"专升本,非专升本"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L2:L29">
-      <formula1>"征兵入伍,非征兵入伍"</formula1>
+    <dataValidation type="list" sqref="M2:M29">
+      <formula1>"Java开发程序员,.Net开发程序员,Android开发程序员,H5开发程序员,Python开发程序员,Web前端开发程序员,大数据运维工程师,大数据开发工程师,云计算运维工程师,云计算开发工程师,软件实施,网络运维,软件测试,少儿编程,UI设计,电子商务技术(SEO、运营）,手机测试,需求分析,新媒体运营,技术支持,软件销售,文档助理,售前,项目助理,5G优化,网络营销,大数据清洗,大数据标,其它"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="_x0001_" sqref="O2:O29">
       <formula1>"云南,非云南,对地点不做要求,"</formula1>
